--- a/docs/Finance/templates/Analytics.xlsx
+++ b/docs/Finance/templates/Analytics.xlsx
@@ -253,43 +253,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -381,43 +381,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -527,55 +527,55 @@
     </row>
     <row r="5">
       <c r="I5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");" ]]></f>
       </c>
       <c r="J5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f><![CDATA[M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"","'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -667,43 +667,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -795,43 +795,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -923,43 +923,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -1051,43 +1051,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -1188,49 +1188,49 @@
     </row>
     <row r="5">
       <c r="H5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&O5&") VALUES ("&V5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&O5&") VALUES ("&V5&");" ]]></f>
       </c>
       <c r="I5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f><![CDATA[M5&IF(AND(M5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  M5&IF(AND(M5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"","'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"", "'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"","'"&TEXT(G5,"YYYY-MM-DD")&" "&TEXT(G5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"", "'"&TEXT(G5,"YYYY-MM-DD")&" "&TEXT(G5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Finance/templates/Analytics.xlsx
+++ b/docs/Finance/templates/Analytics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
   <si>
     <t>analytics</t>
   </si>
@@ -33,33 +33,51 @@
     <t/>
   </si>
   <si>
+    <t>Creditor id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>varchar(10), PK, NN</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>varchar(100), NN</t>
   </si>
   <si>
+    <t>User created record</t>
+  </si>
+  <si>
     <t>created_by</t>
   </si>
   <si>
     <t>varchar(20), NN</t>
   </si>
   <si>
+    <t>Timestamp of record create</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>timestamptz, NN</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
+    <t>Timestamp of record update</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -72,12 +90,18 @@
     <t>Debtor</t>
   </si>
   <si>
+    <t>Debtor id</t>
+  </si>
+  <si>
     <t>business_partners</t>
   </si>
   <si>
     <t>Business partner</t>
   </si>
   <si>
+    <t>Business partner id</t>
+  </si>
+  <si>
     <t>creditor_id</t>
   </si>
   <si>
@@ -93,6 +117,9 @@
     <t>Business area</t>
   </si>
   <si>
+    <t>Business area id</t>
+  </si>
+  <si>
     <t>varchar(4), PK, NN</t>
   </si>
   <si>
@@ -102,6 +129,9 @@
     <t>Functional area</t>
   </si>
   <si>
+    <t>Functional area id</t>
+  </si>
+  <si>
     <t>varchar(20), PK, NN</t>
   </si>
   <si>
@@ -111,12 +141,18 @@
     <t>Segment</t>
   </si>
   <si>
+    <t>Segment id</t>
+  </si>
+  <si>
     <t>attributes</t>
   </si>
   <si>
     <t>Attribute</t>
   </si>
   <si>
+    <t>Attribute id</t>
+  </si>
+  <si>
     <t>attribute_values</t>
   </si>
   <si>
@@ -124,6 +160,9 @@
   </si>
   <si>
     <t>attribute_id</t>
+  </si>
+  <si>
+    <t>Attribute value id</t>
   </si>
   <si>
     <t>attribute_value_id</t>
@@ -171,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -208,7 +247,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -216,19 +255,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -236,60 +275,80 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -299,7 +358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -310,10 +369,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -336,27 +395,27 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -364,60 +423,80 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -427,7 +506,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -470,33 +549,33 @@
         <v>3</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>19</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -504,78 +583,104 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="I5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");" ]]></f>
-      </c>
-      <c r="J5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f><![CDATA[  M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q6&") VALUES ("&Y6&");" ]]></f>
+      </c>
+      <c r="J6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",H6<>""),", ","")&IF(H6<>"", "'"&TEXT(H6,"YYYY-MM-DD")&" "&TEXT(H6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -585,7 +690,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -596,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -622,88 +727,108 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -713,7 +838,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -750,88 +875,108 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -841,7 +986,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -878,27 +1023,27 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -906,60 +1051,80 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -980,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1006,27 +1171,27 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1034,60 +1199,80 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1108,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1137,100 +1322,123 @@
         <v>3</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="H5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&O5&") VALUES ("&V5&");" ]]></f>
-      </c>
-      <c r="I5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f><![CDATA[  M5&IF(AND(M5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"", "'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"", "'"&TEXT(G5,"YYYY-MM-DD")&" "&TEXT(G5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="D5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&O6&") VALUES ("&V6&");" ]]></f>
+      </c>
+      <c r="I6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",E6<>""),", ","")&IF(E6<>"", "'"&TEXT(E6,"YYYY-MM-DD")&" "&TEXT(E6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",G6<>""),", ","")&IF(G6<>"", "'"&TEXT(G6,"YYYY-MM-DD")&" "&TEXT(G6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
